--- a/Attendance/Attendence Sheet.xlsx
+++ b/Attendance/Attendence Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Attendence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A66CE73-FB91-4820-80C6-3A5A30518FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06BF281-2A05-41B6-A90E-1338CAAFBA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D792E24E-B104-4783-A69E-BD5D87D540B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="13">
   <si>
     <t>Br.Name</t>
   </si>
@@ -542,7 +542,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -627,7 +627,7 @@
         <v>45588</v>
       </c>
       <c r="N2" s="10">
-        <v>45595</v>
+        <v>45599</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -782,8 +782,12 @@
       <c r="K6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N6" s="2"/>
     </row>
   </sheetData>

--- a/Attendance/Attendence Sheet.xlsx
+++ b/Attendance/Attendence Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Attendence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06BF281-2A05-41B6-A90E-1338CAAFBA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA952B4-67C6-4101-B98F-1F1083E50FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D792E24E-B104-4783-A69E-BD5D87D540B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
   <si>
     <t>Br.Name</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Oct</t>
+  </si>
+  <si>
+    <t>NOV</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -165,11 +168,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -203,6 +243,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24897A-10D6-4800-93D6-1359858094C0}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,14 +602,15 @@
     <col min="4" max="4" width="7.08984375" style="5" customWidth="1"/>
     <col min="5" max="5" width="7.36328125" style="5" customWidth="1"/>
     <col min="6" max="6" width="6.26953125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.54296875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" style="5" customWidth="1"/>
+    <col min="7" max="9" width="6.6328125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="5.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="6.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1796875" customWidth="1"/>
+    <col min="16" max="16" width="6.26953125" customWidth="1"/>
+    <col min="17" max="17" width="5.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="9" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6">
         <v>2024</v>
       </c>
@@ -582,15 +632,20 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="15"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="10">
@@ -629,8 +684,11 @@
       <c r="N2" s="10">
         <v>45599</v>
       </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -669,8 +727,11 @@
         <v>5</v>
       </c>
       <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -709,8 +770,11 @@
         <v>5</v>
       </c>
       <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -749,8 +813,11 @@
         <v>5</v>
       </c>
       <c r="N5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -782,18 +849,22 @@
       <c r="K6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="N6" s="2"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Attendance/Attendence Sheet.xlsx
+++ b/Attendance/Attendence Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Attendence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA952B4-67C6-4101-B98F-1F1083E50FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E9F9DB-D5E2-4642-896A-7CFBC764C260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D792E24E-B104-4783-A69E-BD5D87D540B4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D792E24E-B104-4783-A69E-BD5D87D540B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="14">
   <si>
     <t>Br.Name</t>
   </si>
@@ -591,7 +591,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,7 +726,9 @@
       <c r="M3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -769,7 +771,9 @@
       <c r="M4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -812,7 +816,9 @@
       <c r="M5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -855,7 +861,9 @@
       <c r="M6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>

--- a/Attendance/Attendence Sheet.xlsx
+++ b/Attendance/Attendence Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Attendence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E9F9DB-D5E2-4642-896A-7CFBC764C260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D27464-DBFC-4FCE-ACFE-A20F5CC7CCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D792E24E-B104-4783-A69E-BD5D87D540B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
   <si>
     <t>Br.Name</t>
   </si>
@@ -209,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -254,6 +254,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +592,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,7 +606,7 @@
     <col min="7" max="9" width="6.6328125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="5.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="6.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1796875" customWidth="1"/>
+    <col min="15" max="15" width="7.453125" customWidth="1"/>
     <col min="16" max="16" width="6.26953125" customWidth="1"/>
     <col min="17" max="17" width="5.81640625" customWidth="1"/>
   </cols>
@@ -684,7 +685,9 @@
       <c r="N2" s="10">
         <v>45599</v>
       </c>
-      <c r="O2" s="1"/>
+      <c r="O2" s="16">
+        <v>45608</v>
+      </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
@@ -729,7 +732,9 @@
       <c r="N3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="1"/>
+      <c r="O3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
@@ -774,7 +779,9 @@
       <c r="N4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="1"/>
+      <c r="O4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
@@ -819,7 +826,9 @@
       <c r="N5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="1"/>
+      <c r="O5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
@@ -864,7 +873,9 @@
       <c r="N6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="1"/>
+      <c r="O6" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>

--- a/Attendance/Attendence Sheet.xlsx
+++ b/Attendance/Attendence Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Attendence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D27464-DBFC-4FCE-ACFE-A20F5CC7CCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF88EB7F-AC2C-4301-9357-8527EB6A3C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D792E24E-B104-4783-A69E-BD5D87D540B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
   <si>
     <t>Br.Name</t>
   </si>
@@ -242,6 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -254,7 +255,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,7 +592,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,7 +607,7 @@
     <col min="10" max="11" width="5.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="6.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.453125" customWidth="1"/>
-    <col min="16" max="16" width="6.26953125" customWidth="1"/>
+    <col min="16" max="16" width="7.26953125" customWidth="1"/>
     <col min="17" max="17" width="5.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -627,24 +627,24 @@
       <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="13" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
@@ -685,10 +685,12 @@
       <c r="N2" s="10">
         <v>45599</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="12">
         <v>45608</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="12">
+        <v>45622</v>
+      </c>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -735,7 +737,9 @@
       <c r="O3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="1"/>
+      <c r="P3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -782,7 +786,9 @@
       <c r="O4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="1"/>
+      <c r="P4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -829,7 +835,9 @@
       <c r="O5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="1"/>
+      <c r="P5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -876,7 +884,9 @@
       <c r="O6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="1"/>
+      <c r="P6" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="Q6" s="1"/>
     </row>
   </sheetData>

--- a/Attendance/Attendence Sheet.xlsx
+++ b/Attendance/Attendence Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Attendence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF88EB7F-AC2C-4301-9357-8527EB6A3C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9F4EBF-C977-4EAD-AA02-ACC0E8F357C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D792E24E-B104-4783-A69E-BD5D87D540B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="15">
   <si>
     <t>Br.Name</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>NOV</t>
+  </si>
+  <si>
+    <t>NC</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,9 +242,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24897A-10D6-4800-93D6-1359858094C0}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -606,12 +609,12 @@
     <col min="7" max="9" width="6.6328125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="5.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="6.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.453125" customWidth="1"/>
-    <col min="16" max="16" width="7.26953125" customWidth="1"/>
-    <col min="17" max="17" width="5.81640625" customWidth="1"/>
+    <col min="15" max="16" width="7.453125" customWidth="1"/>
+    <col min="17" max="17" width="7.26953125" customWidth="1"/>
+    <col min="18" max="18" width="5.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="9" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6">
         <v>2024</v>
       </c>
@@ -627,26 +630,27 @@
       <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="14" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="15"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="10">
@@ -685,15 +689,18 @@
       <c r="N2" s="10">
         <v>45599</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="11">
         <v>45608</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="11">
+        <v>45615</v>
+      </c>
+      <c r="Q2" s="11">
         <v>45622</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -718,7 +725,9 @@
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>5</v>
       </c>
@@ -737,12 +746,15 @@
       <c r="O3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="1"/>
+      <c r="P3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -767,7 +779,9 @@
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
@@ -786,12 +800,15 @@
       <c r="O4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="1"/>
+      <c r="P4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -816,7 +833,9 @@
       <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
@@ -835,12 +854,15 @@
       <c r="O5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="1"/>
+      <c r="P5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -865,7 +887,9 @@
       <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="J6" s="4" t="s">
         <v>6</v>
       </c>
@@ -884,16 +908,19 @@
       <c r="O6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
